--- a/AV45_ANCOVA_PVALUES.xlsx
+++ b/AV45_ANCOVA_PVALUES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="17020" yWindow="1860" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -652,10 +652,47 @@
         <v>-0.33400000000000002</v>
       </c>
     </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="1">
+        <v>6.4008150000000001E-8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.3852160000000001E-14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4.3473649999999997E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.5888700000000002E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.2796390000000002E-6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>8.7886929999999995E-57</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4.8516470000000002E-14</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.3522980000000001E-16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>6.3412460000000004E-6</v>
+      </c>
+      <c r="K19" s="1">
+        <v>3.3787169999999997E-13</v>
+      </c>
+      <c r="L19" s="1">
+        <v>3.840027E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.1213110000000002E-8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
